--- a/branches/master/StructureDefinition-msh-profile.xlsx
+++ b/branches/master/StructureDefinition-msh-profile.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Example Patient Profile</t>
+    <t>Perfil MessageHeader</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T08:24:07+00:00</t>
+    <t>2022-07-14T09:12:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1099,7 +1099,7 @@
     <t>MessageHeader.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(http://example.com/fhir/example/StructureDefinition/content-profile)
 </t>
   </si>
   <si>
@@ -6715,7 +6715,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
         <v>349</v>
       </c>
@@ -6725,13 +6725,13 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>75</v>

--- a/branches/master/StructureDefinition-msh-profile.xlsx
+++ b/branches/master/StructureDefinition-msh-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T09:12:07+00:00</t>
+    <t>2022-07-14T09:51:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-msh-profile.xlsx
+++ b/branches/master/StructureDefinition-msh-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T09:51:10+00:00</t>
+    <t>2022-07-14T10:13:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-msh-profile.xlsx
+++ b/branches/master/StructureDefinition-msh-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T10:13:19+00:00</t>
+    <t>2022-07-14T10:27:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-msh-profile.xlsx
+++ b/branches/master/StructureDefinition-msh-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T10:27:58+00:00</t>
+    <t>2022-07-14T10:47:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-msh-profile.xlsx
+++ b/branches/master/StructureDefinition-msh-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T10:47:14+00:00</t>
+    <t>2022-07-14T11:00:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-msh-profile.xlsx
+++ b/branches/master/StructureDefinition-msh-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T11:00:22+00:00</t>
+    <t>2022-07-14T11:39:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-msh-profile.xlsx
+++ b/branches/master/StructureDefinition-msh-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T11:39:56+00:00</t>
+    <t>2022-07-14T12:13:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-msh-profile.xlsx
+++ b/branches/master/StructureDefinition-msh-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T12:13:58+00:00</t>
+    <t>2022-07-14T12:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-msh-profile.xlsx
+++ b/branches/master/StructureDefinition-msh-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T12:15:20+00:00</t>
+    <t>2022-07-14T12:28:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-msh-profile.xlsx
+++ b/branches/master/StructureDefinition-msh-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T12:28:55+00:00</t>
+    <t>2022-09-22T18:17:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -277,45 +277,49 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>MessageHeader.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>MessageHeader.meta.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>MessageHeader.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>MessageHeader.meta.id</t>
-  </si>
-  <si>
     <t>Unique id for inter-element referencing</t>
   </si>
   <si>
@@ -366,10 +370,6 @@
   </si>
   <si>
     <t>MessageHeader.meta.versionId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id
-</t>
   </si>
   <si>
     <t>Version specific identifier</t>
@@ -1972,13 +1972,13 @@
         <v>75</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -2029,7 +2029,7 @@
         <v>75</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>76</v>
@@ -2047,7 +2047,7 @@
         <v>75</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>75</v>
@@ -2055,11 +2055,11 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
@@ -2078,16 +2078,16 @@
         <v>75</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2125,19 +2125,19 @@
         <v>75</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AC6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>76</v>
@@ -2149,13 +2149,13 @@
         <v>75</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>75</v>
@@ -2163,7 +2163,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -2186,7 +2186,7 @@
         <v>85</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>115</v>
@@ -3245,7 +3245,7 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3264,16 +3264,16 @@
         <v>75</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L17" t="s" s="2">
         <v>185</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3335,7 +3335,7 @@
         <v>75</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>75</v>
@@ -3353,7 +3353,7 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3372,7 +3372,7 @@
         <v>75</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>188</v>
@@ -3381,7 +3381,7 @@
         <v>189</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N18" t="s" s="2">
         <v>190</v>
@@ -3445,7 +3445,7 @@
         <v>75</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>75</v>
@@ -3702,13 +3702,13 @@
         <v>75</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3759,7 +3759,7 @@
         <v>75</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>76</v>
@@ -3777,7 +3777,7 @@
         <v>75</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>75</v>
@@ -3789,7 +3789,7 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3808,16 +3808,16 @@
         <v>75</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3867,7 +3867,7 @@
         <v>75</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>76</v>
@@ -3879,13 +3879,13 @@
         <v>75</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>75</v>
@@ -3916,7 +3916,7 @@
         <v>85</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>216</v>
@@ -3925,7 +3925,7 @@
         <v>217</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N23" t="s" s="2">
         <v>190</v>
@@ -3989,7 +3989,7 @@
         <v>75</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>75</v>
@@ -4026,7 +4026,7 @@
         <v>85</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>220</v>
@@ -4898,13 +4898,13 @@
         <v>75</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4955,7 +4955,7 @@
         <v>75</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>76</v>
@@ -4973,7 +4973,7 @@
         <v>75</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>75</v>
@@ -4985,7 +4985,7 @@
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5004,16 +5004,16 @@
         <v>75</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5063,7 +5063,7 @@
         <v>75</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>76</v>
@@ -5075,13 +5075,13 @@
         <v>75</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>75</v>
@@ -5112,7 +5112,7 @@
         <v>85</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>216</v>
@@ -5121,7 +5121,7 @@
         <v>217</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N34" t="s" s="2">
         <v>190</v>
@@ -5185,7 +5185,7 @@
         <v>75</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>75</v>
@@ -5222,7 +5222,7 @@
         <v>85</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>220</v>
@@ -5330,7 +5330,7 @@
         <v>85</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>279</v>
@@ -5438,7 +5438,7 @@
         <v>85</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>285</v>
@@ -6088,13 +6088,13 @@
         <v>75</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6145,7 +6145,7 @@
         <v>75</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>76</v>
@@ -6163,7 +6163,7 @@
         <v>75</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>75</v>
@@ -6175,7 +6175,7 @@
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6194,16 +6194,16 @@
         <v>75</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6253,7 +6253,7 @@
         <v>75</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>76</v>
@@ -6265,13 +6265,13 @@
         <v>75</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>75</v>
@@ -6302,7 +6302,7 @@
         <v>85</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>216</v>
@@ -6311,7 +6311,7 @@
         <v>217</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>190</v>
@@ -6375,7 +6375,7 @@
         <v>75</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>75</v>
@@ -6412,7 +6412,7 @@
         <v>85</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="K46" t="s" s="2">
         <v>327</v>

--- a/branches/master/StructureDefinition-msh-profile.xlsx
+++ b/branches/master/StructureDefinition-msh-profile.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="354">
   <si>
     <t>Property</t>
   </si>
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.org/StructureDefinition/msh-profile</t>
+    <t>http://example.com/fhir/example/StructureDefinition/msh-profile</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T14:33:47+00:00</t>
+    <t>2023-02-09T20:39:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -671,7 +671,7 @@
     <t>MessageHeader.destination.name</t>
   </si>
   <si>
-    <t>Name of system</t>
+    <t>PEMH</t>
   </si>
   <si>
     <t>Human-readable name for the target system.</t>
@@ -812,7 +812,7 @@
     <t>MessageHeader.author</t>
   </si>
   <si>
-    <t>The source of the decision</t>
+    <t>Profissional que fez a prescrição de medicação para o utente.</t>
   </si>
   <si>
     <t>The logical author of the message - the person or device that decided the described event should happen. When there is more than one candidate, pick the most proximal to the MessageHeader. Can provide other authors in extensions.</t>
@@ -852,6 +852,9 @@
   </si>
   <si>
     <t>MessageHeader.source.name</t>
+  </si>
+  <si>
+    <t>Nome da aplicação que enviou a mensagem. &lt;Aplicação_origem&gt;</t>
   </si>
   <si>
     <t>Human-readable name for the source system.</t>
@@ -924,7 +927,7 @@
     <t>MessageHeader.source.endpoint</t>
   </si>
   <si>
-    <t>Actual message source address or id</t>
+    <t>URL da aplicação que enviou a mensagem. &lt;URL_origem&gt;</t>
   </si>
   <si>
     <t>Identifies the routing target to send acknowledgements to.</t>
@@ -1085,11 +1088,12 @@
     <t>MessageHeader.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://example.org/StructureDefinition/content-profile)
+    <t xml:space="preserve">Reference(http://example.com/fhir/example/StructureDefinition/content-profile)
 </t>
   </si>
   <si>
-    <t>The actual content of the message</t>
+    <t>Corresponde à receita. Enviar somente um recurso RequestGroup por
+mensagem</t>
   </si>
   <si>
     <t>The actual data of the message - a reference to the root/focus class of the event.</t>
@@ -1440,7 +1444,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="61.18359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="74.2890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4998,7 +5002,7 @@
         <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>77</v>
@@ -5372,7 +5376,7 @@
         <v>87</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>77</v>
@@ -5384,14 +5388,14 @@
         <v>100</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>211</v>
+        <v>271</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5455,10 +5459,10 @@
         <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
@@ -5469,10 +5473,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5498,14 +5502,14 @@
         <v>100</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>77</v>
@@ -5554,7 +5558,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5569,10 +5573,10 @@
         <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>77</v>
@@ -5583,10 +5587,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5612,14 +5616,14 @@
         <v>100</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>77</v>
@@ -5668,7 +5672,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5683,10 +5687,10 @@
         <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>77</v>
@@ -5697,10 +5701,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5723,17 +5727,17 @@
         <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5782,7 +5786,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -5797,10 +5801,10 @@
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>77</v>
@@ -5811,10 +5815,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5828,7 +5832,7 @@
         <v>87</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>77</v>
@@ -5840,16 +5844,16 @@
         <v>127</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N39" t="s" s="2">
         <v>225</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>77</v>
@@ -5898,7 +5902,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>87</v>
@@ -5913,10 +5917,10 @@
         <v>77</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>77</v>
@@ -5927,10 +5931,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5956,10 +5960,10 @@
         <v>230</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N40" t="s" s="2">
         <v>251</v>
@@ -6014,7 +6018,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6029,24 +6033,24 @@
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6069,17 +6073,17 @@
         <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>77</v>
@@ -6107,10 +6111,10 @@
         <v>189</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>77</v>
@@ -6128,7 +6132,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6143,24 +6147,24 @@
         <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6186,10 +6190,10 @@
         <v>196</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6240,7 +6244,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6255,10 +6259,10 @@
         <v>201</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>77</v>
@@ -6269,10 +6273,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6381,10 +6385,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6495,10 +6499,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6609,10 +6613,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6638,14 +6642,14 @@
         <v>89</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>77</v>
@@ -6694,7 +6698,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>87</v>
@@ -6709,10 +6713,10 @@
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>77</v>
@@ -6723,10 +6727,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6752,16 +6756,16 @@
         <v>154</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>77</v>
@@ -6789,10 +6793,10 @@
         <v>145</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>77</v>
@@ -6810,7 +6814,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>87</v>
@@ -6825,10 +6829,10 @@
         <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>77</v>
@@ -6839,10 +6843,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6865,19 +6869,19 @@
         <v>88</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -6926,7 +6930,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -6941,10 +6945,10 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>77</v>
@@ -6955,10 +6959,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6981,19 +6985,19 @@
         <v>88</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>77</v>
@@ -7042,7 +7046,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7060,7 +7064,7 @@
         <v>77</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>77</v>

--- a/branches/master/StructureDefinition-msh-profile.xlsx
+++ b/branches/master/StructureDefinition-msh-profile.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$56</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2059" uniqueCount="397">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T20:39:01+00:00</t>
+    <t>2023-02-09T22:10:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -620,6 +620,133 @@
     <t>what</t>
   </si>
   <si>
+    <t>MessageHeader.event.id</t>
+  </si>
+  <si>
+    <t>MessageHeader.event.extension</t>
+  </si>
+  <si>
+    <t>MessageHeader.event.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should de-reference to some definition that establish the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>http://spms.min-saude.pt/iop/events</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>MessageHeader.event.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured. and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>MessageHeader.event.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>MessageHeader.event.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>MED_PRESCRIPTION_SYNCHRONIZATION</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>MessageHeader.event.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - i.e. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
     <t>MessageHeader.destination</t>
   </si>
   <si>
@@ -729,28 +856,32 @@
     <t>MessageHeader.receiver</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>&lt;fornecedor_aplicação/aplicação_origem&gt;</t>
+  </si>
+  <si>
+    <t>Allows data conveyed by a message to be addressed to a particular person or department when routing to a specific application isn't sufficient.</t>
+  </si>
+  <si>
+    <t>Allows routing beyond just the application level.</t>
+  </si>
+  <si>
+    <t>PRT-5:PRT-4='WAYR' / PRT-8:PRT-4='WAYR'</t>
+  </si>
+  <si>
+    <t>Not directly supported.  Could be shared using attentionLine.value with an appropriate keyWordText</t>
+  </si>
+  <si>
+    <t>MessageHeader.sender</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reference(Practitioner|Organization)
 </t>
   </si>
   <si>
-    <t>Intended "real-world" recipient for the data</t>
-  </si>
-  <si>
-    <t>Allows data conveyed by a message to be addressed to a particular person or department when routing to a specific application isn't sufficient.</t>
-  </si>
-  <si>
-    <t>Allows routing beyond just the application level.</t>
-  </si>
-  <si>
-    <t>PRT-5:PRT-4='WAYR' / PRT-8:PRT-4='WAYR'</t>
-  </si>
-  <si>
-    <t>Not directly supported.  Could be shared using attentionLine.value with an appropriate keyWordText</t>
-  </si>
-  <si>
-    <t>MessageHeader.sender</t>
-  </si>
-  <si>
     <t>Real world sender of the message</t>
   </si>
   <si>
@@ -1092,8 +1223,7 @@
 </t>
   </si>
   <si>
-    <t>Corresponde à receita. Enviar somente um recurso RequestGroup por
-mensagem</t>
+    <t>Corresponde à receita. Enviar somente um recurso RequestGroup por mensagem</t>
   </si>
   <si>
     <t>The actual data of the message - a reference to the root/focus class of the event.</t>
@@ -1425,7 +1555,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN49"/>
+  <dimension ref="A1:AN56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1448,7 +1578,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="139.2421875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="176.359375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -3426,7 +3556,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>87</v>
@@ -3543,7 +3673,7 @@
         <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>77</v>
@@ -3552,23 +3682,19 @@
         <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>196</v>
+        <v>100</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>197</v>
+        <v>101</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>200</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>77</v>
       </c>
@@ -3616,50 +3742,50 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>195</v>
+        <v>103</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>202</v>
+        <v>104</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>77</v>
@@ -3671,15 +3797,17 @@
         <v>77</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3716,25 +3844,25 @@
         <v>77</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>77</v>
@@ -3757,21 +3885,21 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>77</v>
@@ -3780,21 +3908,23 @@
         <v>77</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>108</v>
+        <v>198</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>109</v>
+        <v>199</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O21" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>77</v>
       </c>
@@ -3803,7 +3933,7 @@
         <v>77</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="T21" t="s" s="2">
         <v>77</v>
@@ -3842,13 +3972,13 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>114</v>
+        <v>203</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>77</v>
@@ -3857,10 +3987,10 @@
         <v>77</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>77</v>
+        <v>204</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>104</v>
+        <v>205</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>77</v>
@@ -3878,35 +4008,35 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>207</v>
+        <v>77</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="M22" t="s" s="2">
         <v>208</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>110</v>
+        <v>209</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3956,13 +4086,13 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>77</v>
@@ -3971,10 +4101,10 @@
         <v>77</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>77</v>
+        <v>211</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>177</v>
+        <v>212</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -3985,10 +4115,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4011,17 +4141,17 @@
         <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>100</v>
+        <v>154</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -4046,11 +4176,9 @@
         <v>77</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
         <v>77</v>
       </c>
@@ -4070,7 +4198,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4085,10 +4213,10 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
@@ -4099,10 +4227,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4125,17 +4253,17 @@
         <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>217</v>
+        <v>100</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>77</v>
@@ -4145,7 +4273,7 @@
         <v>77</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>77</v>
+        <v>224</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>77</v>
@@ -4184,7 +4312,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4199,10 +4327,10 @@
         <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>77</v>
+        <v>226</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>77</v>
@@ -4213,10 +4341,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4224,7 +4352,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>87</v>
@@ -4239,19 +4367,19 @@
         <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>127</v>
+        <v>229</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4300,10 +4428,10 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>87</v>
@@ -4315,10 +4443,10 @@
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
@@ -4329,10 +4457,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4343,7 +4471,7 @@
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>77</v>
@@ -4355,17 +4483,19 @@
         <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="O26" t="s" s="2">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>77</v>
@@ -4414,39 +4544,39 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>77</v>
+        <v>243</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>234</v>
+        <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>203</v>
+        <v>245</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>203</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4466,23 +4596,19 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>237</v>
+        <v>101</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>77</v>
       </c>
@@ -4530,7 +4656,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>236</v>
+        <v>103</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4545,35 +4671,35 @@
         <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>234</v>
+        <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>235</v>
+        <v>104</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>77</v>
@@ -4582,21 +4708,21 @@
         <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>241</v>
+        <v>108</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>77</v>
       </c>
@@ -4644,13 +4770,13 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>240</v>
+        <v>114</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>77</v>
@@ -4659,60 +4785,58 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>244</v>
+        <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>245</v>
+        <v>104</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>246</v>
+        <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>246</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>77</v>
+        <v>249</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>248</v>
+        <v>107</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>249</v>
+        <v>182</v>
       </c>
       <c r="M29" t="s" s="2">
         <v>250</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>77</v>
       </c>
@@ -4760,13 +4884,13 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>77</v>
@@ -4775,24 +4899,24 @@
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>253</v>
+        <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>254</v>
+        <v>177</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>255</v>
+        <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>255</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4815,19 +4939,17 @@
         <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>248</v>
+        <v>100</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4876,39 +4998,39 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="AG30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>259</v>
-      </c>
       <c r="AL30" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>255</v>
+        <v>77</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>255</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4916,7 +5038,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>87</v>
@@ -4931,17 +5053,17 @@
         <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>196</v>
+        <v>259</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>77</v>
@@ -4990,10 +5112,10 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>87</v>
@@ -5008,21 +5130,21 @@
         <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>266</v>
+        <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>266</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5030,7 +5152,7 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>87</v>
@@ -5042,19 +5164,23 @@
         <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>101</v>
+        <v>265</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>77</v>
       </c>
@@ -5102,10 +5228,10 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>103</v>
+        <v>264</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>87</v>
@@ -5117,10 +5243,10 @@
         <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>77</v>
+        <v>269</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>104</v>
+        <v>270</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
@@ -5131,21 +5257,21 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>77</v>
@@ -5154,21 +5280,21 @@
         <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>107</v>
+        <v>272</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>108</v>
+        <v>273</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O33" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
       </c>
@@ -5216,13 +5342,13 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>114</v>
+        <v>271</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>77</v>
@@ -5231,58 +5357,60 @@
         <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>77</v>
+        <v>276</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>104</v>
+        <v>277</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>77</v>
+        <v>245</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>77</v>
+        <v>245</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>207</v>
+        <v>77</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>107</v>
+        <v>279</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>182</v>
+        <v>280</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>208</v>
+        <v>281</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>77</v>
       </c>
@@ -5330,13 +5458,13 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>209</v>
+        <v>278</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>77</v>
@@ -5345,24 +5473,24 @@
         <v>77</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>77</v>
+        <v>276</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>177</v>
+        <v>277</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>77</v>
+        <v>245</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>77</v>
+        <v>245</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5376,7 +5504,7 @@
         <v>87</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>77</v>
@@ -5385,17 +5513,17 @@
         <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5444,10 +5572,10 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>87</v>
@@ -5459,24 +5587,24 @@
         <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>77</v>
+        <v>289</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>77</v>
+        <v>289</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5499,17 +5627,19 @@
         <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>100</v>
+        <v>291</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>293</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="O36" t="s" s="2">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>77</v>
@@ -5558,7 +5688,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5573,24 +5703,24 @@
         <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>77</v>
+        <v>298</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>77</v>
+        <v>298</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5613,17 +5743,19 @@
         <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>100</v>
+        <v>291</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="O37" t="s" s="2">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>77</v>
@@ -5672,7 +5804,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5687,24 +5819,24 @@
         <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>77</v>
+        <v>298</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>77</v>
+        <v>298</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5712,7 +5844,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>87</v>
@@ -5727,17 +5859,17 @@
         <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5786,10 +5918,10 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>87</v>
@@ -5801,24 +5933,24 @@
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>292</v>
+        <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>77</v>
+        <v>309</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>77</v>
+        <v>309</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5826,35 +5958,31 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>295</v>
+        <v>101</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>297</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>77</v>
       </c>
@@ -5902,10 +6030,10 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>294</v>
+        <v>103</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>87</v>
@@ -5917,10 +6045,10 @@
         <v>77</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>298</v>
+        <v>77</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>299</v>
+        <v>104</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>77</v>
@@ -5931,21 +6059,21 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>77</v>
@@ -5954,23 +6082,21 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>230</v>
+        <v>107</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>301</v>
+        <v>108</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>302</v>
+        <v>109</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>77</v>
       </c>
@@ -6018,13 +6144,13 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>300</v>
+        <v>114</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>77</v>
@@ -6033,58 +6159,58 @@
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>303</v>
+        <v>77</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>304</v>
+        <v>104</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>305</v>
+        <v>77</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>305</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>77</v>
+        <v>249</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J41" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>307</v>
+        <v>107</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>308</v>
+        <v>182</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>77</v>
       </c>
@@ -6108,13 +6234,13 @@
         <v>77</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>311</v>
+        <v>77</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>312</v>
+        <v>77</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>77</v>
@@ -6132,13 +6258,13 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>306</v>
+        <v>251</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>77</v>
@@ -6147,24 +6273,24 @@
         <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>313</v>
+        <v>77</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>314</v>
+        <v>177</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>315</v>
+        <v>77</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>315</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6172,13 +6298,13 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>77</v>
@@ -6187,16 +6313,18 @@
         <v>88</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>196</v>
+        <v>100</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6244,7 +6372,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6256,13 +6384,13 @@
         <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>77</v>
@@ -6273,10 +6401,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6296,19 +6424,21 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
         <v>100</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>101</v>
+        <v>320</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>102</v>
+        <v>321</v>
       </c>
       <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
       </c>
@@ -6356,7 +6486,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>103</v>
+        <v>319</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6371,10 +6501,10 @@
         <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>77</v>
+        <v>323</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>104</v>
+        <v>324</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
@@ -6385,21 +6515,21 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>77</v>
@@ -6408,21 +6538,21 @@
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>108</v>
+        <v>326</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O44" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>77</v>
       </c>
@@ -6470,13 +6600,13 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>114</v>
+        <v>325</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>77</v>
@@ -6485,10 +6615,10 @@
         <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>77</v>
+        <v>328</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>104</v>
+        <v>329</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>77</v>
@@ -6499,44 +6629,44 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>207</v>
+        <v>77</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>107</v>
+        <v>331</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>182</v>
+        <v>332</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O45" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
       </c>
@@ -6584,13 +6714,13 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>209</v>
+        <v>330</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>77</v>
@@ -6599,10 +6729,10 @@
         <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>77</v>
+        <v>335</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>177</v>
+        <v>336</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>77</v>
@@ -6613,10 +6743,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6630,7 +6760,7 @@
         <v>87</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>77</v>
@@ -6639,17 +6769,19 @@
         <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="O46" t="s" s="2">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>77</v>
@@ -6698,7 +6830,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>87</v>
@@ -6713,10 +6845,10 @@
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>77</v>
@@ -6727,10 +6859,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6738,7 +6870,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>87</v>
@@ -6753,19 +6885,19 @@
         <v>88</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>154</v>
+        <v>279</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>333</v>
+        <v>294</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>334</v>
+        <v>295</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>77</v>
@@ -6790,13 +6922,13 @@
         <v>77</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>335</v>
+        <v>77</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>336</v>
+        <v>77</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>77</v>
@@ -6814,10 +6946,10 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>87</v>
@@ -6829,24 +6961,24 @@
         <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>77</v>
+        <v>348</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>77</v>
+        <v>348</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6869,19 +7001,17 @@
         <v>88</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -6906,13 +7036,13 @@
         <v>77</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>77</v>
+        <v>354</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>77</v>
+        <v>355</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>77</v>
@@ -6930,7 +7060,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -6945,24 +7075,24 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>77</v>
+        <v>358</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>77</v>
+        <v>358</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6970,13 +7100,13 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>77</v>
@@ -6985,20 +7115,16 @@
         <v>88</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>348</v>
+        <v>238</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>77</v>
       </c>
@@ -7046,35 +7172,837 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q50" s="2"/>
+      <c r="R50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" hidden="true">
+      <c r="A51" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G51" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AI49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN49" t="s" s="2">
+      <c r="H51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O51" s="2"/>
+      <c r="P51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O52" s="2"/>
+      <c r="P52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="P53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="P54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="P55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="P56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN56" t="s" s="2">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN49">
+  <autoFilter ref="A1:AN56">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7084,7 +8012,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI48">
+  <conditionalFormatting sqref="A2:AI55">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/master/StructureDefinition-msh-profile.xlsx
+++ b/branches/master/StructureDefinition-msh-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T22:10:16+00:00</t>
+    <t>2023-02-10T09:10:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-msh-profile.xlsx
+++ b/branches/master/StructureDefinition-msh-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T09:10:53+00:00</t>
+    <t>2023-02-16T19:26:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-msh-profile.xlsx
+++ b/branches/master/StructureDefinition-msh-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T19:26:47+00:00</t>
+    <t>2023-02-16T20:28:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-msh-profile.xlsx
+++ b/branches/master/StructureDefinition-msh-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T20:28:10+00:00</t>
+    <t>2023-02-16T21:17:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-msh-profile.xlsx
+++ b/branches/master/StructureDefinition-msh-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T21:17:23+00:00</t>
+    <t>2023-02-16T21:36:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
